--- a/the_real_thing/FMBN_4_2/Excel_files_4_2/Version_history.xlsx
+++ b/the_real_thing/FMBN_4_2/Excel_files_4_2/Version_history.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenioparente/Dropbox/FMBN/attività17_21/FMBNv4/FMBN4_2/FMBN4_2_130722/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenioparente/Dropbox/GitHub_repos/FoodMicrobionet/the_real_thing/FMBN_4_2/Excel_files_4_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E6D52A3-6837-A04B-AED6-159BEF2D28C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB70DDF-E001-EC4F-B3CB-C757C6B9F1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7180" yWindow="4360" windowWidth="26040" windowHeight="14940" xr2:uid="{D72FAB21-4762-3142-BA2C-8893AD4D82D8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>version</t>
   </si>
@@ -43,9 +43,6 @@
     <t>citation</t>
   </si>
   <si>
-    <t>link</t>
-  </si>
-  <si>
     <t>v0.6.2</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>http://www.foodmicrobionet.org/?p=564</t>
-  </si>
-  <si>
     <t>v1.0.2</t>
   </si>
   <si>
@@ -67,18 +61,12 @@
     <t>Parente E., Cocolin L., De Filippis, F., Zotta T., Ferrocino I., Neviani E., De Angelis M., Di Cagno R., Cotter P. D., Ercolini D. 2015. FoodMicrobionet: a tool for the visualisation and analysis of the structure of bacterial food microbial communities. 3rd International Conference on Microbial Diversity, Perugia, October 27-29, 2015.</t>
   </si>
   <si>
-    <t>http://www.foodmicrobionet.org/?p=567</t>
-  </si>
-  <si>
     <t>v1.0.3</t>
   </si>
   <si>
     <t>includes minor updates to the previous version (including updates to references for published studies</t>
   </si>
   <si>
-    <t>http://www.foodmicrobionet.org/fmbn1_0_3web/</t>
-  </si>
-  <si>
     <t>v1.0.3g</t>
   </si>
   <si>
@@ -88,9 +76,6 @@
     <t>Parente E., Cocolin L., De Filippis F., Zotta T., Ferrocino I., O’Sullivan O.,  Neviani E., De Angelis M., Cotter P. D., Ercolini D. 2016. FoodMicrobionet: A database for the visualisation and exploration of food bacterial communities based on network analysis. International Journal of Food Microbiology, 219: 28-37 doi:10.1016/j.ijfoodmicro.2015.12.001</t>
   </si>
   <si>
-    <t>http://www.foodmicrobionet.org/?p=575</t>
-  </si>
-  <si>
     <t>v1.1</t>
   </si>
   <si>
@@ -100,27 +85,18 @@
     <t>Parente E., De Filippis F., Zotta T., Cotter P., O’Sullivan O., Puglisi E., Ercolini D. 2016. FoodMicrobionet 1.1.6: a network analysis tool for the exploration of food bacterial communities. Food Micro 2016 Abstract Book, Dublin, IRL, July 19-22, 2016. PO2-FS-080</t>
   </si>
   <si>
-    <t>http://www.foodmicrobionet.org/?p=579</t>
-  </si>
-  <si>
     <t>v2</t>
   </si>
   <si>
     <t>a significantly improved version. It includes 33 studies, 29 of which have been published or are about to be published. With 3929 nodes (2204 OTU nodes, 1413 Food samples, from 59 food types, 312 Food environment nodes) and 87197 connections between OTU and Sample/Environment nodes, FMBN is by far the largest repository of data on the bacterial microbiota of foods. Most data were obtained with similar sequencing platforms, gene targets and bioinformatic pipelines, and were either provided directly by the participating groups or obtained by analysing publicly available bioprojects. Refer to the projects table and edge and node specifications for more details. Minor changes: Corrected mismatches for some samples and bioprojects. Fixed outlinks for sequences deposited in NCBI BioProject database. Corrected a few inconsistencies in lineages and in fields for food classification. Major changes. Revised specification for node and edges tables. Added 672 samples from 8 studies. Added Nreads, Shannon and Chao1 whenever available, otherwise Nreads set to 2999.</t>
   </si>
   <si>
-    <t>http://www.foodmicrobionet.org/?page_id=533</t>
-  </si>
-  <si>
     <t>v2.0.2</t>
   </si>
   <si>
     <t>Minor changes: Fixed problems with inconsistent lineages for a few OTU nodes. Major changes: Revised specification for node and edges tables: now you can use Custom1 to 3 fields for more efficient filtering and application of styles. A web visualisation of the filtered network (weighted degree &gt;17) is available here. This version will allow a better integration with the Bipartite package of R and with the CoNet app of Cytoscape</t>
   </si>
   <si>
-    <t>http://www.foodmicrobionet.org/?p=586</t>
-  </si>
-  <si>
     <t>v2.0.3</t>
   </si>
   <si>
@@ -130,18 +106,12 @@
     <t>De Filippis, F., Parente, E., Zotta, T., Ercolini, D., 2018. A comparison of bioinformatic approaches for 16S rRNA gene profiling of food bacterial microbiota. International Journal of Food Microbiology 265, 9–17. https://doi.org/10.1016/j.ijfoodmicro.2017.10.028</t>
   </si>
   <si>
-    <t>http://www.foodmicrobionet.org/?p=591</t>
-  </si>
-  <si>
     <t>v3</t>
   </si>
   <si>
     <t>Major changes in the structure of the tables and first release of the app</t>
   </si>
   <si>
-    <t>http://www.foodmicrobionet.org/?p=422</t>
-  </si>
-  <si>
     <t>v3.1</t>
   </si>
   <si>
@@ -151,27 +121,18 @@
     <t>Parente, E., De Filippis, F., Ercolini, D., Ricciardi, A., Zotta, T., 2019. Advancing integration of data on food microbiome studies: FoodMicrobionet 3.1, a major upgrade of the FoodMicrobionet database. International Journal of Food Microbiology, 305 (September 2019): 108249 DOI: 10.1016/j.ijfoodmicro.2019.108249.</t>
   </si>
   <si>
-    <t>http://www.foodmicrobionet.org/?p=487</t>
-  </si>
-  <si>
     <t>v3.2.3</t>
   </si>
   <si>
     <t>Minor additions</t>
   </si>
   <si>
-    <t>http://www.foodmicrobionet.org/?p=683</t>
-  </si>
-  <si>
     <t>v3.2.6</t>
   </si>
   <si>
     <t>Major changes to the taxonomic table of the database, which is now compatible with SILVA taxonomy. Although SILVA taxonomy does not match the taxonomy in the List of Prokaryotic names with Standing in Nomenclature the change was necessary because new studies in FoodMicrobionet are processed using SILVA v138 and this was causing inconsistencies in the higher level taxonomy of taxa (i.e. the same genus might potentially have a different lineage depending on when it was added to the database) and this, in turn, would prevent correct aggregation at levels higher than genus.</t>
   </si>
   <si>
-    <t>http://www.foodmicrobionet.org/?p=720</t>
-  </si>
-  <si>
     <t>v4.1.2</t>
   </si>
   <si>
@@ -181,16 +142,10 @@
     <t>Parente, E., Zotta, T., Ricciardi, A., 2022. FoodMicrobionet v4: A large, integrated, open and transparent database for food bacterial communities. Int J Food Microbiol 372, 109696. https://doi.org/10.1016/j.ijfoodmicro.2022.109696</t>
   </si>
   <si>
-    <t>http://www.foodmicrobionet.org/?p=749</t>
-  </si>
-  <si>
     <t>v4.2</t>
   </si>
   <si>
     <t>Added version table and 21 studies; fixed links to Omnicrobe (formerly Florilege)</t>
-  </si>
-  <si>
-    <t>http://www.foodmicrobionet.org/?p=826</t>
   </si>
 </sst>
 </file>
@@ -542,15 +497,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D35C14-9101-2C44-9D45-DDF1C27250AF}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D15"/>
+      <selection activeCell="D15" sqref="D1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,204 +515,159 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
       <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
